--- a/data/epa_xls/lmopdatahi.xlsx
+++ b/data/epa_xls/lmopdatahi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAAECCC-C6E4-472E-BF91-A7348F4CE471}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C462B2A-CC72-426B-B3A0-090EC0D39229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EDF3136D-E00E-4C1A-B1E1-191657693E6E}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{98746EBF-7FFE-4BA7-B6B7-A2CDE8CF178A}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{40784E9D-6816-4251-95EA-1C8DB47286DD}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B85A70E7-475D-4924-BDED-D16CCDC63F47}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DA594185-8F15-45C8-B7C8-43DB738E0F26}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5E6FA53A-7C4C-4B9B-A398-9AA237A7288F}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{DF81E4D4-2971-40BC-817C-73CD5B3BA3FC}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{15931033-3E2D-4393-9F73-8D9FB939EF1A}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A461B964-347C-46C3-83F3-EF8071641776}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1E410F15-C504-4470-B557-7A447CD3404C}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{0728DAEB-3DDA-4748-954D-77B58F8119A5}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{01D1A7FB-F6BD-4E31-9251-35BD88DEDAA9}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{CB807D72-9415-4CDD-8116-85FAC1860C5E}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{C9923B86-71AE-4595-84F0-27E85D4F7204}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{041F4145-768A-43CC-BBC2-9A4B5E37D054}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{2B05045A-E5E7-4EBD-8E09-07A16C808E6B}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{F6560C67-322E-4525-AFD1-8FE20ED507D3}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{66D2213B-7843-4185-A5FD-51B5D82648B6}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{4A4E1B3C-4BE1-436E-A866-00680AB892CA}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{44FDB54A-2649-4675-A3BE-49860A83B576}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{0B59E750-5F98-4034-BEC2-7998D3AD5465}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{F157EB34-02D5-4C18-850D-4059632AB377}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{BC0D0145-A8ED-4998-B013-119E10E16B86}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2B6E966D-F7C8-4128-A9E6-40A064E91C58}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{BB54EDDD-3209-4EBD-BF0F-F72598DE0DB3}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{DC71D6EF-6A29-4A13-A4F7-EB6A745E2229}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{3E52F384-5E42-4239-90C2-F81818B204D5}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{C96AD128-6189-41D6-A15A-CB2CD9E0F229}">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{D6076650-D1D7-4087-BC8E-111144987EB1}">
       <text>
         <r>
           <rPr>
@@ -434,12 +434,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{230B11E1-5F1B-4BD7-B537-6DD3DF168B66}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{BE8EEA5F-D2B4-4B8C-96F3-A9E7A481EDA8}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{C033C401-D663-42B9-B3F8-4863D6B7B420}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{6DEE3E73-7E30-4EC9-AE21-4E64EF71BA75}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -711,9 +722,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -1156,6 +1164,18 @@
   </si>
   <si>
     <t>71-1111 Queen Kaahumanu Highway</t>
+  </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
   </si>
 </sst>
 </file>
@@ -1579,6 +1599,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1624,19 +1657,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2019,10 +2039,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>42</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -2044,36 +2064,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -2088,70 +2108,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -2160,20 +2180,20 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2184,16 +2204,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="C24" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2215,14 +2235,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - Hawaii</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2257,13 +2277,13 @@
     <col min="25" max="25" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="47" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2346,45 +2366,48 @@
         <v>25</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AG1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5">
         <v>2079</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="I2" s="5">
         <v>20.86</v>
@@ -2393,10 +2416,10 @@
         <v>-156.41900000000001</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M2" s="5">
         <v>1987</v>
@@ -2405,66 +2428,67 @@
         <v>2039</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6">
+        <v>5412118</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6">
-        <v>5235718</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="S2" s="5">
-        <v>1.073</v>
+        <v>1.133</v>
       </c>
       <c r="T2" s="5">
-        <v>1.073</v>
+        <v>1.133</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-    </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10">
         <v>2080</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="I3" s="10">
         <v>20.767779999999998</v>
@@ -2473,10 +2497,10 @@
         <v>-155.98858999999999</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M3" s="10">
         <v>1969</v>
@@ -2485,7 +2509,7 @@
         <v>2079</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="11">
         <v>124500</v>
@@ -2494,57 +2518,58 @@
         <v>2008</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-    </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>2299</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M4" s="10">
         <v>1975</v>
@@ -2553,60 +2578,61 @@
         <v>1993</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" s="11">
         <v>500000</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>11321</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="I5" s="10">
         <v>21.100960000000001</v>
@@ -2615,10 +2641,10 @@
         <v>-157.05000999999999</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M5" s="10">
         <v>1970</v>
@@ -2627,7 +2653,7 @@
         <v>1993</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="11">
         <v>81625</v>
@@ -2636,53 +2662,54 @@
         <v>1993</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>2088</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="I6" s="10">
         <v>21.448</v>
@@ -2691,10 +2718,10 @@
         <v>-157.73099999999999</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M6" s="10">
         <v>1978</v>
@@ -2703,58 +2730,59 @@
         <v>2024</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>1777</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="I7" s="10">
         <v>21.4</v>
@@ -2763,17 +2791,17 @@
         <v>-157.767</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M7" s="10">
         <v>1955</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="11">
         <v>4500000</v>
@@ -2782,55 +2810,56 @@
         <v>2000</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-    </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+    </row>
+    <row r="8" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="10">
         <v>2297</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="I8" s="10">
         <v>21.401025000000001</v>
@@ -2839,10 +2868,10 @@
         <v>-157.77502999999999</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M8" s="10">
         <v>1970</v>
@@ -2851,7 +2880,7 @@
         <v>1995</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" s="11">
         <v>5838786</v>
@@ -2860,22 +2889,22 @@
         <v>1995</v>
       </c>
       <c r="R8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="S8" s="10">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="T8" s="10">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="X8" s="12">
         <v>32874</v>
@@ -2884,45 +2913,48 @@
         <v>36526</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10">
         <v>3.3</v>
       </c>
       <c r="AD8" s="10">
+        <v>3.33</v>
+      </c>
+      <c r="AE8" s="10">
         <v>2.5</v>
       </c>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="10">
         <v>2081</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="I9" s="10">
         <v>22.034520000000001</v>
@@ -2931,10 +2963,10 @@
         <v>-159.73029</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M9" s="10">
         <v>1953</v>
@@ -2943,70 +2975,71 @@
         <v>2021</v>
       </c>
       <c r="O9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="11">
+        <v>2759422</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="11">
-        <v>2666170</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S9" s="10">
-        <v>0.375</v>
+        <v>0.629</v>
       </c>
       <c r="T9" s="10">
-        <v>0.375</v>
+        <v>0.629</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AA9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB9" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="AC9" s="10"/>
-      <c r="AD9" s="10">
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10">
         <v>0.5</v>
       </c>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-    </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+    </row>
+    <row r="10" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10">
         <v>2083</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="G10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="I10" s="10">
         <v>20.794</v>
@@ -3015,10 +3048,10 @@
         <v>-156.96700000000001</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M10" s="10">
         <v>1969</v>
@@ -3027,7 +3060,7 @@
         <v>2020</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="11">
         <v>182910</v>
@@ -3036,53 +3069,54 @@
         <v>2008</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-    </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+    </row>
+    <row r="11" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10">
         <v>2084</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="G11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="I11" s="10">
         <v>21.117999999999999</v>
@@ -3091,17 +3125,17 @@
         <v>-157.06200000000001</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M11" s="10">
         <v>1993</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="11">
         <v>90800</v>
@@ -3110,53 +3144,54 @@
         <v>2008</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-    </row>
-    <row r="12" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+    </row>
+    <row r="12" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10">
         <v>11300</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="G12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="I12" s="10">
         <v>20.830190000000002</v>
@@ -3165,10 +3200,10 @@
         <v>-156.62902</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M12" s="10">
         <v>1967</v>
@@ -3177,7 +3212,7 @@
         <v>1992</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" s="11">
         <v>259700</v>
@@ -3186,55 +3221,56 @@
         <v>1992</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-    </row>
-    <row r="13" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+    </row>
+    <row r="13" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" s="10">
         <v>20793</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I13" s="10">
         <v>21.338000000000001</v>
@@ -3243,10 +3279,10 @@
         <v>-158.08799999999999</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M13" s="10">
         <v>1974</v>
@@ -3255,7 +3291,7 @@
         <v>1988</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" s="11">
         <v>2845215</v>
@@ -3264,59 +3300,60 @@
         <v>1988</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="10">
-        <v>4.0000000000000001E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T13" s="10">
-        <v>4.0000000000000001E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="W13" s="10"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-    </row>
-    <row r="14" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+    </row>
+    <row r="14" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B14" s="10">
         <v>2087</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="I14" s="10">
         <v>19.698</v>
@@ -3325,10 +3362,10 @@
         <v>-155.04400000000001</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M14" s="10">
         <v>1969</v>
@@ -3337,64 +3374,65 @@
         <v>2020</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="11">
-        <v>3056445</v>
+        <v>3133012</v>
       </c>
       <c r="Q14" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W14" s="10"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-    </row>
-    <row r="15" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+    </row>
+    <row r="15" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" s="10">
         <v>2089</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="G15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="I15" s="10">
         <v>21.344000000000001</v>
@@ -3403,10 +3441,10 @@
         <v>-158.11278999999999</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M15" s="10">
         <v>1989</v>
@@ -3415,68 +3453,69 @@
         <v>2038</v>
       </c>
       <c r="O15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="11">
+        <v>12161011</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="11">
-        <v>11909510</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S15" s="10">
-        <v>1.157</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="T15" s="10">
-        <v>1.157</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W15" s="10"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-    </row>
-    <row r="16" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+    </row>
+    <row r="16" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="14">
         <v>2090</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I16" s="14">
         <v>19.889012999999998</v>
@@ -3485,58 +3524,59 @@
         <v>-155.88029700000001</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M16" s="14">
         <v>1993</v>
       </c>
       <c r="N16" s="14">
-        <v>2041</v>
+        <v>2054</v>
       </c>
       <c r="O16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="15">
+        <v>2651566</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>2018</v>
+      </c>
+      <c r="R16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="15">
-        <v>2488026</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>2017</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>33</v>
-      </c>
       <c r="S16" s="14">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="T16" s="14">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="U16" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W16" s="14"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA16" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG16">
     <sortCondition ref="C2:C16"/>
     <sortCondition ref="U2:U16"/>
   </sortState>
@@ -3545,7 +3585,7 @@
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Hawaii&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Hawaii&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -3557,7 +3597,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3575,10 +3615,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3586,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3594,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3602,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3610,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3618,7 +3658,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3626,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3634,7 +3674,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3642,7 +3682,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3650,7 +3690,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3658,7 +3698,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3666,7 +3706,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3674,7 +3714,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3682,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3690,7 +3730,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3698,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3706,7 +3746,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3714,7 +3754,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -3722,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3730,7 +3770,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3738,7 +3778,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3746,7 +3786,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3754,7 +3794,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3762,7 +3802,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3770,7 +3810,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3778,7 +3818,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3786,7 +3826,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3794,47 +3834,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>69</v>
+      <c r="A30" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>70</v>
+      <c r="A31" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>72</v>
+      <c r="B34" s="46" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
